--- a/原始数据与结果统计/实验统计.xlsx
+++ b/原始数据与结果统计/实验统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -435,6 +435,9 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
+      <c r="G5">
+        <v>10340</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -449,6 +452,9 @@
       <c r="D6">
         <f t="shared" si="0"/>
         <v>54</v>
+      </c>
+      <c r="G6">
+        <v>12700</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
